--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Edn1-Ednrb.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Edn1-Ednrb.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,22 +82,22 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Edn1</t>
+  </si>
+  <si>
+    <t>Ednrb</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Edn1</t>
-  </si>
-  <si>
-    <t>Ednrb</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.668177999999999</v>
+        <v>20.48107266666667</v>
       </c>
       <c r="H2">
-        <v>29.004534</v>
+        <v>61.443218</v>
       </c>
       <c r="I2">
-        <v>0.826615067350047</v>
+        <v>0.9059075955710103</v>
       </c>
       <c r="J2">
-        <v>0.8266150673500469</v>
+        <v>0.9059075955710103</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>23.923694</v>
+        <v>61.89239633333334</v>
       </c>
       <c r="N2">
-        <v>71.77108200000001</v>
+        <v>185.677189</v>
       </c>
       <c r="O2">
-        <v>0.3350100887068321</v>
+        <v>0.3758067454097886</v>
       </c>
       <c r="P2">
-        <v>0.3350100887068322</v>
+        <v>0.3758067454097886</v>
       </c>
       <c r="Q2">
-        <v>231.298532009532</v>
+        <v>1267.622666817134</v>
       </c>
       <c r="R2">
-        <v>2081.686788085788</v>
+        <v>11408.6040013542</v>
       </c>
       <c r="S2">
-        <v>0.2769243870393432</v>
+        <v>0.3404461851335484</v>
       </c>
       <c r="T2">
-        <v>0.2769243870393433</v>
+        <v>0.3404461851335484</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.668177999999999</v>
+        <v>20.48107266666667</v>
       </c>
       <c r="H3">
-        <v>29.004534</v>
+        <v>61.443218</v>
       </c>
       <c r="I3">
-        <v>0.826615067350047</v>
+        <v>0.9059075955710103</v>
       </c>
       <c r="J3">
-        <v>0.8266150673500469</v>
+        <v>0.9059075955710103</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>3.189955</v>
       </c>
       <c r="O3">
-        <v>0.01488994003909266</v>
+        <v>0.00645640217309452</v>
       </c>
       <c r="P3">
-        <v>0.01488994003909267</v>
+        <v>0.006456402173094521</v>
       </c>
       <c r="Q3">
-        <v>10.28035091733</v>
+        <v>21.77790005279889</v>
       </c>
       <c r="R3">
-        <v>92.52315825597</v>
+        <v>196.00110047519</v>
       </c>
       <c r="S3">
-        <v>0.01230824878825274</v>
+        <v>0.005848903768667503</v>
       </c>
       <c r="T3">
-        <v>0.01230824878825275</v>
+        <v>0.005848903768667504</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,14 +652,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>27</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
         <v>3</v>
       </c>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.668177999999999</v>
+        <v>20.48107266666667</v>
       </c>
       <c r="H4">
-        <v>29.004534</v>
+        <v>61.443218</v>
       </c>
       <c r="I4">
-        <v>0.826615067350047</v>
+        <v>0.9059075955710103</v>
       </c>
       <c r="J4">
-        <v>0.8266150673500469</v>
+        <v>0.9059075955710103</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.150636</v>
+        <v>11.19030466666667</v>
       </c>
       <c r="N4">
-        <v>15.451908</v>
+        <v>33.570914</v>
       </c>
       <c r="O4">
-        <v>0.07212577720048596</v>
+        <v>0.06794682749517447</v>
       </c>
       <c r="P4">
-        <v>0.07212577720048599</v>
+        <v>0.06794682749517447</v>
       </c>
       <c r="Q4">
-        <v>49.79726566120799</v>
+        <v>229.1894430401391</v>
       </c>
       <c r="R4">
-        <v>448.175390950872</v>
+        <v>2062.704987361252</v>
       </c>
       <c r="S4">
-        <v>0.05962025417825419</v>
+        <v>0.06155354712283172</v>
       </c>
       <c r="T4">
-        <v>0.0596202541782542</v>
+        <v>0.06155354712283172</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.668177999999999</v>
+        <v>20.48107266666667</v>
       </c>
       <c r="H5">
-        <v>29.004534</v>
+        <v>61.443218</v>
       </c>
       <c r="I5">
-        <v>0.826615067350047</v>
+        <v>0.9059075955710103</v>
       </c>
       <c r="J5">
-        <v>0.8266150673500469</v>
+        <v>0.9059075955710103</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>34.26374833333333</v>
+        <v>74.55619899999999</v>
       </c>
       <c r="N5">
-        <v>102.791245</v>
+        <v>223.668597</v>
       </c>
       <c r="O5">
-        <v>0.4798047228232635</v>
+        <v>0.4527005602661487</v>
       </c>
       <c r="P5">
-        <v>0.4798047228232636</v>
+        <v>0.4527005602661487</v>
       </c>
       <c r="Q5">
-        <v>331.26801783387</v>
+        <v>1526.990929469461</v>
       </c>
       <c r="R5">
-        <v>2981.41216050483</v>
+        <v>13742.91836522514</v>
       </c>
       <c r="S5">
-        <v>0.3966138132714225</v>
+        <v>0.410104876064356</v>
       </c>
       <c r="T5">
-        <v>0.3966138132714226</v>
+        <v>0.410104876064356</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>9.668177999999999</v>
+        <v>20.48107266666667</v>
       </c>
       <c r="H6">
-        <v>29.004534</v>
+        <v>61.443218</v>
       </c>
       <c r="I6">
-        <v>0.826615067350047</v>
+        <v>0.9059075955710103</v>
       </c>
       <c r="J6">
-        <v>0.8266150673500469</v>
+        <v>0.9059075955710103</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.74491</v>
+        <v>3.330078</v>
       </c>
       <c r="N6">
-        <v>17.23473</v>
+        <v>9.990233999999999</v>
       </c>
       <c r="O6">
-        <v>0.08044756000945201</v>
+        <v>0.02022002457944478</v>
       </c>
       <c r="P6">
-        <v>0.08044756000945202</v>
+        <v>0.02022002457944478</v>
       </c>
       <c r="Q6">
-        <v>55.54281247397999</v>
+        <v>68.20356950366799</v>
       </c>
       <c r="R6">
-        <v>499.8853122658199</v>
+        <v>613.832125533012</v>
       </c>
       <c r="S6">
-        <v>0.06649916523536012</v>
+        <v>0.01831747384915155</v>
       </c>
       <c r="T6">
-        <v>0.06649916523536012</v>
+        <v>0.01831747384915155</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>9.668177999999999</v>
+        <v>20.48107266666667</v>
       </c>
       <c r="H7">
-        <v>29.004534</v>
+        <v>61.443218</v>
       </c>
       <c r="I7">
-        <v>0.826615067350047</v>
+        <v>0.9059075955710103</v>
       </c>
       <c r="J7">
-        <v>0.8266150673500469</v>
+        <v>0.9059075955710103</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.265554666666667</v>
+        <v>12.65978833333333</v>
       </c>
       <c r="N7">
-        <v>3.796664</v>
+        <v>37.979365</v>
       </c>
       <c r="O7">
-        <v>0.01772191122087356</v>
+        <v>0.07686944007634902</v>
       </c>
       <c r="P7">
-        <v>0.01772191122087356</v>
+        <v>0.07686944007634904</v>
       </c>
       <c r="Q7">
-        <v>12.235607786064</v>
+        <v>259.2860447996189</v>
       </c>
       <c r="R7">
-        <v>110.120470074576</v>
+        <v>2333.57440319657</v>
       </c>
       <c r="S7">
-        <v>0.01464919883741395</v>
+        <v>0.0696366096324552</v>
       </c>
       <c r="T7">
-        <v>0.01464919883741395</v>
+        <v>0.06963660963245522</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>2.411886</v>
       </c>
       <c r="I8">
-        <v>0.06873757421272948</v>
+        <v>0.03556040712339288</v>
       </c>
       <c r="J8">
-        <v>0.06873757421272947</v>
+        <v>0.03556040712339288</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>23.923694</v>
+        <v>61.89239633333334</v>
       </c>
       <c r="N8">
-        <v>71.77108200000001</v>
+        <v>185.677189</v>
       </c>
       <c r="O8">
-        <v>0.3350100887068321</v>
+        <v>0.3758067454097886</v>
       </c>
       <c r="P8">
-        <v>0.3350100887068322</v>
+        <v>0.3758067454097886</v>
       </c>
       <c r="Q8">
-        <v>19.233740875628</v>
+        <v>49.75913474093934</v>
       </c>
       <c r="R8">
-        <v>173.103667880652</v>
+        <v>447.8322126684541</v>
       </c>
       <c r="S8">
-        <v>0.02302778083449896</v>
+        <v>0.01336384086648934</v>
       </c>
       <c r="T8">
-        <v>0.02302778083449896</v>
+        <v>0.01336384086648934</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>2.411886</v>
       </c>
       <c r="I9">
-        <v>0.06873757421272948</v>
+        <v>0.03556040712339288</v>
       </c>
       <c r="J9">
-        <v>0.06873757421272947</v>
+        <v>0.03556040712339288</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>3.189955</v>
       </c>
       <c r="O9">
-        <v>0.01488994003909266</v>
+        <v>0.00645640217309452</v>
       </c>
       <c r="P9">
-        <v>0.01488994003909267</v>
+        <v>0.006456402173094521</v>
       </c>
       <c r="Q9">
         <v>0.8548675339033334</v>
@@ -1013,10 +1013,10 @@
         <v>7.693807805130001</v>
       </c>
       <c r="S9">
-        <v>0.001023498358460224</v>
+        <v>0.0002295922898275997</v>
       </c>
       <c r="T9">
-        <v>0.001023498358460224</v>
+        <v>0.0002295922898275997</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>2.411886</v>
       </c>
       <c r="I10">
-        <v>0.06873757421272948</v>
+        <v>0.03556040712339288</v>
       </c>
       <c r="J10">
-        <v>0.06873757421272947</v>
+        <v>0.03556040712339288</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.150636</v>
+        <v>11.19030466666667</v>
       </c>
       <c r="N10">
-        <v>15.451908</v>
+        <v>33.570914</v>
       </c>
       <c r="O10">
-        <v>0.07212577720048596</v>
+        <v>0.06794682749517447</v>
       </c>
       <c r="P10">
-        <v>0.07212577720048599</v>
+        <v>0.06794682749517447</v>
       </c>
       <c r="Q10">
-        <v>4.140915619832</v>
+        <v>8.996579720422668</v>
       </c>
       <c r="R10">
-        <v>37.268240578488</v>
+        <v>80.969217483804</v>
       </c>
       <c r="S10">
-        <v>0.004957750962969196</v>
+        <v>0.00241621684847135</v>
       </c>
       <c r="T10">
-        <v>0.004957750962969197</v>
+        <v>0.00241621684847135</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,10 +1107,10 @@
         <v>2.411886</v>
       </c>
       <c r="I11">
-        <v>0.06873757421272948</v>
+        <v>0.03556040712339288</v>
       </c>
       <c r="J11">
-        <v>0.06873757421272947</v>
+        <v>0.03556040712339288</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>34.26374833333333</v>
+        <v>74.55619899999999</v>
       </c>
       <c r="N11">
-        <v>102.791245</v>
+        <v>223.668597</v>
       </c>
       <c r="O11">
-        <v>0.4798047228232635</v>
+        <v>0.4527005602661487</v>
       </c>
       <c r="P11">
-        <v>0.4798047228232636</v>
+        <v>0.4527005602661487</v>
       </c>
       <c r="Q11">
-        <v>27.54675163756333</v>
+        <v>59.94035086043799</v>
       </c>
       <c r="R11">
-        <v>247.92076473807</v>
+        <v>539.4631577439419</v>
       </c>
       <c r="S11">
-        <v>0.03298061274268217</v>
+        <v>0.0160982162280523</v>
       </c>
       <c r="T11">
-        <v>0.03298061274268218</v>
+        <v>0.0160982162280523</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,10 +1169,10 @@
         <v>2.411886</v>
       </c>
       <c r="I12">
-        <v>0.06873757421272948</v>
+        <v>0.03556040712339288</v>
       </c>
       <c r="J12">
-        <v>0.06873757421272947</v>
+        <v>0.03556040712339288</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.74491</v>
+        <v>3.330078</v>
       </c>
       <c r="N12">
-        <v>17.23473</v>
+        <v>9.990233999999999</v>
       </c>
       <c r="O12">
-        <v>0.08044756000945201</v>
+        <v>0.02022002457944478</v>
       </c>
       <c r="P12">
-        <v>0.08044756000945202</v>
+        <v>0.02022002457944478</v>
       </c>
       <c r="Q12">
-        <v>4.61868933342</v>
+        <v>2.677256169036</v>
       </c>
       <c r="R12">
-        <v>41.56820400078</v>
+        <v>24.095305521324</v>
       </c>
       <c r="S12">
-        <v>0.005529770126382716</v>
+        <v>0.0007190323060900672</v>
       </c>
       <c r="T12">
-        <v>0.005529770126382716</v>
+        <v>0.0007190323060900672</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1231,10 +1231,10 @@
         <v>2.411886</v>
       </c>
       <c r="I13">
-        <v>0.06873757421272948</v>
+        <v>0.03556040712339288</v>
       </c>
       <c r="J13">
-        <v>0.06873757421272947</v>
+        <v>0.03556040712339288</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.265554666666667</v>
+        <v>12.65978833333333</v>
       </c>
       <c r="N13">
-        <v>3.796664</v>
+        <v>37.979365</v>
       </c>
       <c r="O13">
-        <v>0.01772191122087356</v>
+        <v>0.07686944007634902</v>
       </c>
       <c r="P13">
-        <v>0.01772191122087356</v>
+        <v>0.07686944007634904</v>
       </c>
       <c r="Q13">
-        <v>1.017457860922667</v>
+        <v>10.17798874804333</v>
       </c>
       <c r="R13">
-        <v>9.157120748303999</v>
+        <v>91.60189873239</v>
       </c>
       <c r="S13">
-        <v>0.001218161187736199</v>
+        <v>0.002733508584462224</v>
       </c>
       <c r="T13">
-        <v>0.001218161187736199</v>
+        <v>0.002733508584462225</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.2108686666666667</v>
+        <v>0.256138</v>
       </c>
       <c r="H14">
-        <v>0.632606</v>
+        <v>0.7684139999999999</v>
       </c>
       <c r="I14">
-        <v>0.01802896234416467</v>
+        <v>0.01132935581504052</v>
       </c>
       <c r="J14">
-        <v>0.01802896234416467</v>
+        <v>0.01132935581504052</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>23.923694</v>
+        <v>61.89239633333334</v>
       </c>
       <c r="N14">
-        <v>71.77108200000001</v>
+        <v>185.677189</v>
       </c>
       <c r="O14">
-        <v>0.3350100887068321</v>
+        <v>0.3758067454097886</v>
       </c>
       <c r="P14">
-        <v>0.3350100887068322</v>
+        <v>0.3758067454097886</v>
       </c>
       <c r="Q14">
-        <v>5.044757455521334</v>
+        <v>15.85299461202733</v>
       </c>
       <c r="R14">
-        <v>45.402817099692</v>
+        <v>142.676951508246</v>
       </c>
       <c r="S14">
-        <v>0.006039884274210742</v>
+        <v>0.004257648336439841</v>
       </c>
       <c r="T14">
-        <v>0.006039884274210743</v>
+        <v>0.00425764833643984</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.2108686666666667</v>
+        <v>0.256138</v>
       </c>
       <c r="H15">
-        <v>0.632606</v>
+        <v>0.7684139999999999</v>
       </c>
       <c r="I15">
-        <v>0.01802896234416467</v>
+        <v>0.01132935581504052</v>
       </c>
       <c r="J15">
-        <v>0.01802896234416467</v>
+        <v>0.01132935581504052</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>3.189955</v>
       </c>
       <c r="O15">
-        <v>0.01488994003909266</v>
+        <v>0.00645640217309452</v>
       </c>
       <c r="P15">
-        <v>0.01488994003909267</v>
+        <v>0.006456402173094521</v>
       </c>
       <c r="Q15">
-        <v>0.2242205191922222</v>
+        <v>0.2723562312633333</v>
       </c>
       <c r="R15">
-        <v>2.01798467273</v>
+        <v>2.45120608137</v>
       </c>
       <c r="S15">
-        <v>0.0002684501682716714</v>
+        <v>7.314687750398864E-05</v>
       </c>
       <c r="T15">
-        <v>0.0002684501682716715</v>
+        <v>7.314687750398864E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>27</v>
       </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.2108686666666667</v>
+        <v>0.256138</v>
       </c>
       <c r="H16">
-        <v>0.632606</v>
+        <v>0.7684139999999999</v>
       </c>
       <c r="I16">
-        <v>0.01802896234416467</v>
+        <v>0.01132935581504052</v>
       </c>
       <c r="J16">
-        <v>0.01802896234416467</v>
+        <v>0.01132935581504052</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.150636</v>
+        <v>11.19030466666667</v>
       </c>
       <c r="N16">
-        <v>15.451908</v>
+        <v>33.570914</v>
       </c>
       <c r="O16">
-        <v>0.07212577720048596</v>
+        <v>0.06794682749517447</v>
       </c>
       <c r="P16">
-        <v>0.07212577720048599</v>
+        <v>0.06794682749517447</v>
       </c>
       <c r="Q16">
-        <v>1.086107745805333</v>
+        <v>2.866262256710667</v>
       </c>
       <c r="R16">
-        <v>9.774969712248</v>
+        <v>25.796360310396</v>
       </c>
       <c r="S16">
-        <v>0.001300352921191172</v>
+        <v>0.0007697937851960099</v>
       </c>
       <c r="T16">
-        <v>0.001300352921191172</v>
+        <v>0.0007697937851960098</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.2108686666666667</v>
+        <v>0.256138</v>
       </c>
       <c r="H17">
-        <v>0.632606</v>
+        <v>0.7684139999999999</v>
       </c>
       <c r="I17">
-        <v>0.01802896234416467</v>
+        <v>0.01132935581504052</v>
       </c>
       <c r="J17">
-        <v>0.01802896234416467</v>
+        <v>0.01132935581504052</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>34.26374833333333</v>
+        <v>74.55619899999999</v>
       </c>
       <c r="N17">
-        <v>102.791245</v>
+        <v>223.668597</v>
       </c>
       <c r="O17">
-        <v>0.4798047228232635</v>
+        <v>0.4527005602661487</v>
       </c>
       <c r="P17">
-        <v>0.4798047228232636</v>
+        <v>0.4527005602661487</v>
       </c>
       <c r="Q17">
-        <v>7.225150926052223</v>
+        <v>19.096675699462</v>
       </c>
       <c r="R17">
-        <v>65.02635833447</v>
+        <v>171.870081295158</v>
       </c>
       <c r="S17">
-        <v>0.008650381280332985</v>
+        <v>0.005128805724923392</v>
       </c>
       <c r="T17">
-        <v>0.008650381280332986</v>
+        <v>0.005128805724923391</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.2108686666666667</v>
+        <v>0.256138</v>
       </c>
       <c r="H18">
-        <v>0.632606</v>
+        <v>0.7684139999999999</v>
       </c>
       <c r="I18">
-        <v>0.01802896234416467</v>
+        <v>0.01132935581504052</v>
       </c>
       <c r="J18">
-        <v>0.01802896234416467</v>
+        <v>0.01132935581504052</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>5.74491</v>
+        <v>3.330078</v>
       </c>
       <c r="N18">
-        <v>17.23473</v>
+        <v>9.990233999999999</v>
       </c>
       <c r="O18">
-        <v>0.08044756000945201</v>
+        <v>0.02022002457944478</v>
       </c>
       <c r="P18">
-        <v>0.08044756000945202</v>
+        <v>0.02022002457944478</v>
       </c>
       <c r="Q18">
-        <v>1.21142151182</v>
+        <v>0.8529595187639999</v>
       </c>
       <c r="R18">
-        <v>10.90279360638</v>
+        <v>7.676635668875998</v>
       </c>
       <c r="S18">
-        <v>0.001450386030090338</v>
+        <v>0.0002290798530493949</v>
       </c>
       <c r="T18">
-        <v>0.001450386030090338</v>
+        <v>0.0002290798530493949</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.2108686666666667</v>
+        <v>0.256138</v>
       </c>
       <c r="H19">
-        <v>0.632606</v>
+        <v>0.7684139999999999</v>
       </c>
       <c r="I19">
-        <v>0.01802896234416467</v>
+        <v>0.01132935581504052</v>
       </c>
       <c r="J19">
-        <v>0.01802896234416467</v>
+        <v>0.01132935581504052</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.265554666666667</v>
+        <v>12.65978833333333</v>
       </c>
       <c r="N19">
-        <v>3.796664</v>
+        <v>37.979365</v>
       </c>
       <c r="O19">
-        <v>0.01772191122087356</v>
+        <v>0.07686944007634902</v>
       </c>
       <c r="P19">
-        <v>0.01772191122087356</v>
+        <v>0.07686944007634904</v>
       </c>
       <c r="Q19">
-        <v>0.2668658251537778</v>
+        <v>3.242652864123333</v>
       </c>
       <c r="R19">
-        <v>2.401792426384</v>
+        <v>29.18387577711</v>
       </c>
       <c r="S19">
-        <v>0.0003195076700677587</v>
+        <v>0.0008708812379278935</v>
       </c>
       <c r="T19">
-        <v>0.0003195076700677587</v>
+        <v>0.0008708812379278935</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,10 +1644,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.23172</v>
+        <v>0.964784</v>
       </c>
       <c r="H20">
-        <v>0.69516</v>
+        <v>2.894352</v>
       </c>
       <c r="I20">
-        <v>0.01981172082333951</v>
+        <v>0.04267379779906946</v>
       </c>
       <c r="J20">
-        <v>0.0198117208233395</v>
+        <v>0.04267379779906946</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>23.923694</v>
+        <v>61.89239633333334</v>
       </c>
       <c r="N20">
-        <v>71.77108200000001</v>
+        <v>185.677189</v>
       </c>
       <c r="O20">
-        <v>0.3350100887068321</v>
+        <v>0.3758067454097886</v>
       </c>
       <c r="P20">
-        <v>0.3350100887068322</v>
+        <v>0.3758067454097886</v>
       </c>
       <c r="Q20">
-        <v>5.54359837368</v>
+        <v>59.71279370405868</v>
       </c>
       <c r="R20">
-        <v>49.89238536312001</v>
+        <v>537.4151433365281</v>
       </c>
       <c r="S20">
-        <v>0.006637126350461963</v>
+        <v>0.01603710106514369</v>
       </c>
       <c r="T20">
-        <v>0.006637126350461963</v>
+        <v>0.01603710106514369</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,10 +1706,10 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.23172</v>
+        <v>0.964784</v>
       </c>
       <c r="H21">
-        <v>0.69516</v>
+        <v>2.894352</v>
       </c>
       <c r="I21">
-        <v>0.01981172082333951</v>
+        <v>0.04267379779906946</v>
       </c>
       <c r="J21">
-        <v>0.0198117208233395</v>
+        <v>0.04267379779906946</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>3.189955</v>
       </c>
       <c r="O21">
-        <v>0.01488994003909266</v>
+        <v>0.00645640217309452</v>
       </c>
       <c r="P21">
-        <v>0.01488994003909267</v>
+        <v>0.006456402173094521</v>
       </c>
       <c r="Q21">
-        <v>0.2463921242</v>
+        <v>1.025872514906667</v>
       </c>
       <c r="R21">
-        <v>2.2175291178</v>
+        <v>9.23285263416</v>
       </c>
       <c r="S21">
-        <v>0.0002949953351307688</v>
+        <v>0.0002755192008441082</v>
       </c>
       <c r="T21">
-        <v>0.0002949953351307688</v>
+        <v>0.0002755192008441082</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,14 +1768,14 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
         <v>27</v>
       </c>
-      <c r="D22" t="s">
-        <v>22</v>
-      </c>
       <c r="E22">
         <v>3</v>
       </c>
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.23172</v>
+        <v>0.964784</v>
       </c>
       <c r="H22">
-        <v>0.69516</v>
+        <v>2.894352</v>
       </c>
       <c r="I22">
-        <v>0.01981172082333951</v>
+        <v>0.04267379779906946</v>
       </c>
       <c r="J22">
-        <v>0.0198117208233395</v>
+        <v>0.04267379779906946</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>5.150636</v>
+        <v>11.19030466666667</v>
       </c>
       <c r="N22">
-        <v>15.451908</v>
+        <v>33.570914</v>
       </c>
       <c r="O22">
-        <v>0.07212577720048596</v>
+        <v>0.06794682749517447</v>
       </c>
       <c r="P22">
-        <v>0.07212577720048599</v>
+        <v>0.06794682749517447</v>
       </c>
       <c r="Q22">
-        <v>1.19350537392</v>
+        <v>10.79622689752533</v>
       </c>
       <c r="R22">
-        <v>10.74154836528</v>
+        <v>97.16604207772801</v>
       </c>
       <c r="S22">
-        <v>0.001428935762062414</v>
+        <v>0.002899549177617328</v>
       </c>
       <c r="T22">
-        <v>0.001428935762062414</v>
+        <v>0.002899549177617328</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,13 +1830,13 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E23">
         <v>3</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.23172</v>
+        <v>0.964784</v>
       </c>
       <c r="H23">
-        <v>0.69516</v>
+        <v>2.894352</v>
       </c>
       <c r="I23">
-        <v>0.01981172082333951</v>
+        <v>0.04267379779906946</v>
       </c>
       <c r="J23">
-        <v>0.0198117208233395</v>
+        <v>0.04267379779906946</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>34.26374833333333</v>
+        <v>74.55619899999999</v>
       </c>
       <c r="N23">
-        <v>102.791245</v>
+        <v>223.668597</v>
       </c>
       <c r="O23">
-        <v>0.4798047228232635</v>
+        <v>0.4527005602661487</v>
       </c>
       <c r="P23">
-        <v>0.4798047228232636</v>
+        <v>0.4527005602661487</v>
       </c>
       <c r="Q23">
-        <v>7.9395957638</v>
+        <v>71.93062789601599</v>
       </c>
       <c r="R23">
-        <v>71.4563618742</v>
+        <v>647.375651064144</v>
       </c>
       <c r="S23">
-        <v>0.009505757218294291</v>
+        <v>0.01931845217232309</v>
       </c>
       <c r="T23">
-        <v>0.009505757218294291</v>
+        <v>0.01931845217232309</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,13 +1892,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E24">
         <v>3</v>
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.23172</v>
+        <v>0.964784</v>
       </c>
       <c r="H24">
-        <v>0.69516</v>
+        <v>2.894352</v>
       </c>
       <c r="I24">
-        <v>0.01981172082333951</v>
+        <v>0.04267379779906946</v>
       </c>
       <c r="J24">
-        <v>0.0198117208233395</v>
+        <v>0.04267379779906946</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>5.74491</v>
+        <v>3.330078</v>
       </c>
       <c r="N24">
-        <v>17.23473</v>
+        <v>9.990233999999999</v>
       </c>
       <c r="O24">
-        <v>0.08044756000945201</v>
+        <v>0.02022002457944478</v>
       </c>
       <c r="P24">
-        <v>0.08044756000945202</v>
+        <v>0.02022002457944478</v>
       </c>
       <c r="Q24">
-        <v>1.3312105452</v>
+        <v>3.212805973152</v>
       </c>
       <c r="R24">
-        <v>11.9808949068</v>
+        <v>28.915253758368</v>
       </c>
       <c r="S24">
-        <v>0.001593804599826115</v>
+        <v>0.0008628652403954408</v>
       </c>
       <c r="T24">
-        <v>0.001593804599826115</v>
+        <v>0.0008628652403954408</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,13 +1954,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25">
         <v>3</v>
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.23172</v>
+        <v>0.964784</v>
       </c>
       <c r="H25">
-        <v>0.69516</v>
+        <v>2.894352</v>
       </c>
       <c r="I25">
-        <v>0.01981172082333951</v>
+        <v>0.04267379779906946</v>
       </c>
       <c r="J25">
-        <v>0.0198117208233395</v>
+        <v>0.04267379779906946</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.265554666666667</v>
+        <v>12.65978833333333</v>
       </c>
       <c r="N25">
-        <v>3.796664</v>
+        <v>37.979365</v>
       </c>
       <c r="O25">
-        <v>0.01772191122087356</v>
+        <v>0.07686944007634902</v>
       </c>
       <c r="P25">
-        <v>0.01772191122087356</v>
+        <v>0.07686944007634904</v>
       </c>
       <c r="Q25">
-        <v>0.29325432736</v>
+        <v>12.21396122738667</v>
       </c>
       <c r="R25">
-        <v>2.63928894624</v>
+        <v>109.92565104648</v>
       </c>
       <c r="S25">
-        <v>0.0003511015575639547</v>
+        <v>0.003280310942745804</v>
       </c>
       <c r="T25">
-        <v>0.0003511015575639547</v>
+        <v>0.003280310942745805</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,31 +2016,31 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>0.7237056666666667</v>
+        <v>0.1023896666666667</v>
       </c>
       <c r="H26">
-        <v>2.171117</v>
+        <v>0.307169</v>
       </c>
       <c r="I26">
-        <v>0.06187577518672881</v>
+        <v>0.004528843691486857</v>
       </c>
       <c r="J26">
-        <v>0.0618757751867288</v>
+        <v>0.004528843691486857</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>23.923694</v>
+        <v>61.89239633333334</v>
       </c>
       <c r="N26">
-        <v>71.77108200000001</v>
+        <v>185.677189</v>
       </c>
       <c r="O26">
-        <v>0.3350100887068321</v>
+        <v>0.3758067454097886</v>
       </c>
       <c r="P26">
-        <v>0.3350100887068322</v>
+        <v>0.3758067454097886</v>
       </c>
       <c r="Q26">
-        <v>17.31371291539934</v>
+        <v>6.337141829771223</v>
       </c>
       <c r="R26">
-        <v>155.823416238594</v>
+        <v>57.03427646794101</v>
       </c>
       <c r="S26">
-        <v>0.02072900893411002</v>
+        <v>0.001701970008167328</v>
       </c>
       <c r="T26">
-        <v>0.02072900893411003</v>
+        <v>0.001701970008167328</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,31 +2078,31 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>0.7237056666666667</v>
+        <v>0.1023896666666667</v>
       </c>
       <c r="H27">
-        <v>2.171117</v>
+        <v>0.307169</v>
       </c>
       <c r="I27">
-        <v>0.06187577518672881</v>
+        <v>0.004528843691486857</v>
       </c>
       <c r="J27">
-        <v>0.0618757751867288</v>
+        <v>0.004528843691486857</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>3.189955</v>
       </c>
       <c r="O27">
-        <v>0.01488994003909266</v>
+        <v>0.00645640217309452</v>
       </c>
       <c r="P27">
-        <v>0.01488994003909267</v>
+        <v>0.006456402173094521</v>
       </c>
       <c r="Q27">
-        <v>0.7695295033038889</v>
+        <v>0.1088728097105556</v>
       </c>
       <c r="R27">
-        <v>6.925765529735001</v>
+        <v>0.9798552873950002</v>
       </c>
       <c r="S27">
-        <v>0.0009213265824027697</v>
+        <v>2.924003625132115E-05</v>
       </c>
       <c r="T27">
-        <v>0.0009213265824027698</v>
+        <v>2.924003625132116E-05</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,31 +2140,31 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
         <v>27</v>
       </c>
-      <c r="D28" t="s">
-        <v>22</v>
-      </c>
       <c r="E28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G28">
-        <v>0.7237056666666667</v>
+        <v>0.1023896666666667</v>
       </c>
       <c r="H28">
-        <v>2.171117</v>
+        <v>0.307169</v>
       </c>
       <c r="I28">
-        <v>0.06187577518672881</v>
+        <v>0.004528843691486857</v>
       </c>
       <c r="J28">
-        <v>0.0618757751867288</v>
+        <v>0.004528843691486857</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>5.150636</v>
+        <v>11.19030466666667</v>
       </c>
       <c r="N28">
-        <v>15.451908</v>
+        <v>33.570914</v>
       </c>
       <c r="O28">
-        <v>0.07212577720048596</v>
+        <v>0.06794682749517447</v>
       </c>
       <c r="P28">
-        <v>0.07212577720048599</v>
+        <v>0.06794682749517447</v>
       </c>
       <c r="Q28">
-        <v>3.727544460137333</v>
+        <v>1.145771564718445</v>
       </c>
       <c r="R28">
-        <v>33.547900141236</v>
+        <v>10.311944082466</v>
       </c>
       <c r="S28">
-        <v>0.004462838375225361</v>
+        <v>0.0003077205610580666</v>
       </c>
       <c r="T28">
-        <v>0.004462838375225361</v>
+        <v>0.0003077205610580666</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,31 +2202,31 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>0.7237056666666667</v>
+        <v>0.1023896666666667</v>
       </c>
       <c r="H29">
-        <v>2.171117</v>
+        <v>0.307169</v>
       </c>
       <c r="I29">
-        <v>0.06187577518672881</v>
+        <v>0.004528843691486857</v>
       </c>
       <c r="J29">
-        <v>0.0618757751867288</v>
+        <v>0.004528843691486857</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>34.26374833333333</v>
+        <v>74.55619899999999</v>
       </c>
       <c r="N29">
-        <v>102.791245</v>
+        <v>223.668597</v>
       </c>
       <c r="O29">
-        <v>0.4798047228232635</v>
+        <v>0.4527005602661487</v>
       </c>
       <c r="P29">
-        <v>0.4798047228232636</v>
+        <v>0.4527005602661487</v>
       </c>
       <c r="Q29">
-        <v>24.79686883007389</v>
+        <v>7.633784363543666</v>
       </c>
       <c r="R29">
-        <v>223.171819470665</v>
+        <v>68.704059271893</v>
       </c>
       <c r="S29">
-        <v>0.02968828916294298</v>
+        <v>0.002050210076493913</v>
       </c>
       <c r="T29">
-        <v>0.02968828916294299</v>
+        <v>0.002050210076493913</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,31 +2264,31 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>0.7237056666666667</v>
+        <v>0.1023896666666667</v>
       </c>
       <c r="H30">
-        <v>2.171117</v>
+        <v>0.307169</v>
       </c>
       <c r="I30">
-        <v>0.06187577518672881</v>
+        <v>0.004528843691486857</v>
       </c>
       <c r="J30">
-        <v>0.0618757751867288</v>
+        <v>0.004528843691486857</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>5.74491</v>
+        <v>3.330078</v>
       </c>
       <c r="N30">
-        <v>17.23473</v>
+        <v>9.990233999999999</v>
       </c>
       <c r="O30">
-        <v>0.08044756000945201</v>
+        <v>0.02022002457944478</v>
       </c>
       <c r="P30">
-        <v>0.08044756000945202</v>
+        <v>0.02022002457944478</v>
       </c>
       <c r="Q30">
-        <v>4.15762392149</v>
+        <v>0.340965576394</v>
       </c>
       <c r="R30">
-        <v>37.41861529341</v>
+        <v>3.068690187546</v>
       </c>
       <c r="S30">
-        <v>0.004977755137465728</v>
+        <v>9.157333075832765E-05</v>
       </c>
       <c r="T30">
-        <v>0.004977755137465728</v>
+        <v>9.157333075832765E-05</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,31 +2326,31 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G31">
-        <v>0.7237056666666667</v>
+        <v>0.1023896666666667</v>
       </c>
       <c r="H31">
-        <v>2.171117</v>
+        <v>0.307169</v>
       </c>
       <c r="I31">
-        <v>0.06187577518672881</v>
+        <v>0.004528843691486857</v>
       </c>
       <c r="J31">
-        <v>0.0618757751867288</v>
+        <v>0.004528843691486857</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,400 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>1.265554666666667</v>
+        <v>12.65978833333333</v>
       </c>
       <c r="N31">
-        <v>3.796664</v>
+        <v>37.979365</v>
       </c>
       <c r="O31">
-        <v>0.01772191122087356</v>
+        <v>0.07686944007634902</v>
       </c>
       <c r="P31">
-        <v>0.01772191122087356</v>
+        <v>0.07686944007634904</v>
       </c>
       <c r="Q31">
-        <v>0.9158890837431111</v>
+        <v>1.296231507520555</v>
       </c>
       <c r="R31">
-        <v>8.243001753688</v>
+        <v>11.666083567685</v>
       </c>
       <c r="S31">
-        <v>0.001096556994581939</v>
+        <v>0.0003481296787579002</v>
       </c>
       <c r="T31">
-        <v>0.001096556994581939</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G32">
-        <v>0.05767233333333333</v>
-      </c>
-      <c r="H32">
-        <v>0.173017</v>
-      </c>
-      <c r="I32">
-        <v>0.00493090008299058</v>
-      </c>
-      <c r="J32">
-        <v>0.004930900082990579</v>
-      </c>
-      <c r="K32">
-        <v>3</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>23.923694</v>
-      </c>
-      <c r="N32">
-        <v>71.77108200000001</v>
-      </c>
-      <c r="O32">
-        <v>0.3350100887068321</v>
-      </c>
-      <c r="P32">
-        <v>0.3350100887068322</v>
-      </c>
-      <c r="Q32">
-        <v>1.379735254932667</v>
-      </c>
-      <c r="R32">
-        <v>12.417617294394</v>
-      </c>
-      <c r="S32">
-        <v>0.0016519012742072</v>
-      </c>
-      <c r="T32">
-        <v>0.0016519012742072</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G33">
-        <v>0.05767233333333333</v>
-      </c>
-      <c r="H33">
-        <v>0.173017</v>
-      </c>
-      <c r="I33">
-        <v>0.00493090008299058</v>
-      </c>
-      <c r="J33">
-        <v>0.004930900082990579</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>1.063318333333333</v>
-      </c>
-      <c r="N33">
-        <v>3.189955</v>
-      </c>
-      <c r="O33">
-        <v>0.01488994003909266</v>
-      </c>
-      <c r="P33">
-        <v>0.01488994003909267</v>
-      </c>
-      <c r="Q33">
-        <v>0.06132404935944444</v>
-      </c>
-      <c r="R33">
-        <v>0.5519164442350001</v>
-      </c>
-      <c r="S33">
-        <v>7.342080657448676E-05</v>
-      </c>
-      <c r="T33">
-        <v>7.342080657448678E-05</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="F34">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G34">
-        <v>0.05767233333333333</v>
-      </c>
-      <c r="H34">
-        <v>0.173017</v>
-      </c>
-      <c r="I34">
-        <v>0.00493090008299058</v>
-      </c>
-      <c r="J34">
-        <v>0.004930900082990579</v>
-      </c>
-      <c r="K34">
-        <v>3</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="M34">
-        <v>5.150636</v>
-      </c>
-      <c r="N34">
-        <v>15.451908</v>
-      </c>
-      <c r="O34">
-        <v>0.07212577720048596</v>
-      </c>
-      <c r="P34">
-        <v>0.07212577720048599</v>
-      </c>
-      <c r="Q34">
-        <v>0.2970491962706666</v>
-      </c>
-      <c r="R34">
-        <v>2.673442766436</v>
-      </c>
-      <c r="S34">
-        <v>0.0003556450007836363</v>
-      </c>
-      <c r="T34">
-        <v>0.0003556450007836364</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G35">
-        <v>0.05767233333333333</v>
-      </c>
-      <c r="H35">
-        <v>0.173017</v>
-      </c>
-      <c r="I35">
-        <v>0.00493090008299058</v>
-      </c>
-      <c r="J35">
-        <v>0.004930900082990579</v>
-      </c>
-      <c r="K35">
-        <v>3</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>34.26374833333333</v>
-      </c>
-      <c r="N35">
-        <v>102.791245</v>
-      </c>
-      <c r="O35">
-        <v>0.4798047228232635</v>
-      </c>
-      <c r="P35">
-        <v>0.4798047228232636</v>
-      </c>
-      <c r="Q35">
-        <v>1.976070315129444</v>
-      </c>
-      <c r="R35">
-        <v>17.784632836165</v>
-      </c>
-      <c r="S35">
-        <v>0.002365869147588502</v>
-      </c>
-      <c r="T35">
-        <v>0.002365869147588503</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-      <c r="F36">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G36">
-        <v>0.05767233333333333</v>
-      </c>
-      <c r="H36">
-        <v>0.173017</v>
-      </c>
-      <c r="I36">
-        <v>0.00493090008299058</v>
-      </c>
-      <c r="J36">
-        <v>0.004930900082990579</v>
-      </c>
-      <c r="K36">
-        <v>3</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>5.74491</v>
-      </c>
-      <c r="N36">
-        <v>17.23473</v>
-      </c>
-      <c r="O36">
-        <v>0.08044756000945201</v>
-      </c>
-      <c r="P36">
-        <v>0.08044756000945202</v>
-      </c>
-      <c r="Q36">
-        <v>0.33132236449</v>
-      </c>
-      <c r="R36">
-        <v>2.98190128041</v>
-      </c>
-      <c r="S36">
-        <v>0.0003966788803269965</v>
-      </c>
-      <c r="T36">
-        <v>0.0003966788803269965</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="F37">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G37">
-        <v>0.05767233333333333</v>
-      </c>
-      <c r="H37">
-        <v>0.173017</v>
-      </c>
-      <c r="I37">
-        <v>0.00493090008299058</v>
-      </c>
-      <c r="J37">
-        <v>0.004930900082990579</v>
-      </c>
-      <c r="K37">
-        <v>3</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37">
-        <v>1.265554666666667</v>
-      </c>
-      <c r="N37">
-        <v>3.796664</v>
-      </c>
-      <c r="O37">
-        <v>0.01772191122087356</v>
-      </c>
-      <c r="P37">
-        <v>0.01772191122087356</v>
-      </c>
-      <c r="Q37">
-        <v>0.07298749058755555</v>
-      </c>
-      <c r="R37">
-        <v>0.656887415288</v>
-      </c>
-      <c r="S37">
-        <v>8.73849735097571E-05</v>
-      </c>
-      <c r="T37">
-        <v>8.73849735097571E-05</v>
+        <v>0.0003481296787579003</v>
       </c>
     </row>
   </sheetData>
